--- a/draw_graph/G500_log/G500_log1.xlsx
+++ b/draw_graph/G500_log/G500_log1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\科研_项目_竞赛\GPU三角计数算法期刊改稿\draw_graph\G500_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4192CAF-781C-43EC-8332-76FCBAFD6E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6EB32-A18E-4C27-A345-7DA3791BF45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,56 +22,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>datasets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC-HASH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>polak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TRUST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e2</t>
+    <t>Datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e4</t>
+    <t>Polak</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e8</t>
+    <t>GroupTC-BS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e16</t>
+    <t>GroupTC-HS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s20-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e128</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e256</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>s20-e2</t>
+  </si>
+  <si>
+    <t>s20-e4</t>
+  </si>
+  <si>
+    <t>s20-e8</t>
+  </si>
+  <si>
+    <t>s20-e16</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s20-e64</t>
+  </si>
+  <si>
+    <t>s20-e128</t>
+  </si>
+  <si>
+    <t>s20-e256</t>
   </si>
 </sst>
 </file>
@@ -459,31 +451,31 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">

--- a/draw_graph/G500_log/G500_log1.xlsx
+++ b/draw_graph/G500_log/G500_log1.xlsx
@@ -8,69 +8,76 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6EB32-A18E-4C27-A345-7DA3791BF45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5AFA0-3BC8-4ADD-8BF9-17AF55DC533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>TRUST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>s20-e2</t>
+  </si>
+  <si>
+    <t>s20-e4</t>
+  </si>
+  <si>
+    <t>s20-e8</t>
+  </si>
+  <si>
+    <t>s20-e16</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s20-e64</t>
+  </si>
+  <si>
+    <t>s20-e128</t>
+  </si>
+  <si>
+    <t>s20-e256</t>
+  </si>
+  <si>
+    <t>TRUST</t>
+  </si>
+  <si>
     <t>Polak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GroupTC-BS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GroupTC-HS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20-e2</t>
-  </si>
-  <si>
-    <t>s20-e4</t>
-  </si>
-  <si>
-    <t>s20-e8</t>
-  </si>
-  <si>
-    <t>s20-e16</t>
-  </si>
-  <si>
-    <t>s20-e32</t>
-  </si>
-  <si>
-    <t>s20-e64</t>
-  </si>
-  <si>
-    <t>s20-e128</t>
-  </si>
-  <si>
-    <t>s20-e256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +108,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,12 +152,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,7 +468,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,159 +476,160 @@
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1.833E-3</v>
       </c>
       <c r="C2">
-        <v>9.5500000000000001E-4</v>
+        <v>5.4699999999999996E-4</v>
       </c>
       <c r="D2">
-        <v>1.632E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>1.2030000000000001E-3</v>
+        <v>1.206E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>6.2509999999999996E-3</v>
+        <v>6.2989999999999999E-3</v>
       </c>
       <c r="C3">
-        <v>2.8219999999999999E-3</v>
+        <v>2.1900000000000001E-3</v>
       </c>
       <c r="D3">
-        <v>4.2989999999999999E-3</v>
+        <v>4.3109999999999997E-3</v>
       </c>
       <c r="E3">
-        <v>3.1199999999999999E-3</v>
+        <v>3.1319999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2.367E-2</v>
+        <v>2.3823E-2</v>
       </c>
       <c r="C4">
-        <v>1.0357E-2</v>
+        <v>8.352E-3</v>
       </c>
       <c r="D4">
-        <v>1.1993999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E4">
-        <v>9.4450000000000003E-3</v>
+        <v>9.4699999999999993E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8.7313000000000002E-2</v>
+        <v>8.7432999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>3.7005000000000003E-2</v>
+        <v>2.7331999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>3.9598000000000001E-2</v>
+        <v>3.9641999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>3.1278E-2</v>
+        <v>3.1306E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.30160999999999999</v>
+        <v>0.30085400000000001</v>
       </c>
       <c r="C6">
-        <v>0.12782399999999999</v>
+        <v>0.10022200000000001</v>
       </c>
       <c r="D6">
-        <v>0.120953</v>
+        <v>0.120881</v>
       </c>
       <c r="E6">
-        <v>0.10166</v>
+        <v>0.101636</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.98953800000000003</v>
+        <v>0.98911899999999997</v>
       </c>
       <c r="C7">
-        <v>0.43578600000000001</v>
+        <v>0.32099699999999998</v>
       </c>
       <c r="D7">
-        <v>0.35957600000000001</v>
+        <v>0.35936600000000002</v>
       </c>
       <c r="E7">
-        <v>0.32070599999999999</v>
+        <v>0.32058700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3.0775190000000001</v>
+        <v>3.0756410000000001</v>
       </c>
       <c r="C8">
-        <v>1.2950919999999999</v>
+        <v>0.97722699999999996</v>
       </c>
       <c r="D8">
-        <v>1.1006260000000001</v>
+        <v>1.0999209999999999</v>
       </c>
       <c r="E8">
-        <v>0.96461799999999998</v>
+        <v>0.96449200000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>9.0569410000000001</v>
+        <v>9.0527999999999995</v>
       </c>
       <c r="C9">
-        <v>4.0160780000000003</v>
+        <v>2.9967429999999999</v>
       </c>
       <c r="D9">
-        <v>3.314756</v>
+        <v>3.3154729999999999</v>
       </c>
       <c r="E9">
-        <v>2.8830610000000001</v>
+        <v>2.8821180000000002</v>
       </c>
     </row>
   </sheetData>
